--- a/final/shirting.xlsx
+++ b/final/shirting.xlsx
@@ -1634,6 +1634,60 @@
       <c r="A22" s="1" t="n">
         <v>42522</v>
       </c>
+      <c r="B22" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>185</v>
+      </c>
+      <c r="D22" t="n">
+        <v>175</v>
+      </c>
+      <c r="E22" t="n">
+        <v>175</v>
+      </c>
+      <c r="F22" t="n">
+        <v>138.57</v>
+      </c>
+      <c r="G22" t="n">
+        <v>125</v>
+      </c>
+      <c r="H22" t="n">
+        <v>140</v>
+      </c>
+      <c r="I22" t="n">
+        <v>210</v>
+      </c>
+      <c r="J22" t="n">
+        <v>115</v>
+      </c>
+      <c r="K22" t="n">
+        <v>166.15</v>
+      </c>
+      <c r="L22" t="n">
+        <v>140</v>
+      </c>
+      <c r="M22" t="n">
+        <v>120</v>
+      </c>
+      <c r="N22" t="n">
+        <v>130</v>
+      </c>
+      <c r="O22" t="n">
+        <v>283.33</v>
+      </c>
+      <c r="P22" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>160</v>
+      </c>
+      <c r="R22" t="n">
+        <v>190</v>
+      </c>
+      <c r="S22" t="n">
+        <v>164.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -5237,6 +5291,60 @@
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>42552</v>
+      </c>
+      <c r="B84" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="C84" t="n">
+        <v>185</v>
+      </c>
+      <c r="D84" t="n">
+        <v>175</v>
+      </c>
+      <c r="E84" t="n">
+        <v>175</v>
+      </c>
+      <c r="F84" t="n">
+        <v>138.57</v>
+      </c>
+      <c r="G84" t="n">
+        <v>125</v>
+      </c>
+      <c r="H84" t="n">
+        <v>140</v>
+      </c>
+      <c r="I84" t="n">
+        <v>210</v>
+      </c>
+      <c r="J84" t="n">
+        <v>115</v>
+      </c>
+      <c r="K84" t="n">
+        <v>166.15</v>
+      </c>
+      <c r="L84" t="n">
+        <v>140</v>
+      </c>
+      <c r="M84" t="n">
+        <v>120</v>
+      </c>
+      <c r="N84" t="n">
+        <v>130</v>
+      </c>
+      <c r="O84" t="n">
+        <v>283.33</v>
+      </c>
+      <c r="P84" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>160</v>
+      </c>
+      <c r="R84" t="n">
+        <v>190</v>
+      </c>
+      <c r="S84" t="n">
+        <v>164.3</v>
       </c>
     </row>
     <row r="85">

--- a/final/shirting.xlsx
+++ b/final/shirting.xlsx
@@ -358,7 +358,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
           <t>Islamabad</t>
